--- a/document/project.xlsx
+++ b/document/project.xlsx
@@ -380,7 +380,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -440,16 +440,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -649,6 +738,199 @@
         </a:fillRef>
         <a:effectRef idx="1">
           <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1030941" y="1232647"/>
+          <a:ext cx="481853" cy="997324"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4045324" y="2308412"/>
+          <a:ext cx="3529852" cy="5894294"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7933765" y="3955676"/>
+          <a:ext cx="2106706" cy="3899648"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9973235" y="4179794"/>
+          <a:ext cx="3765177" cy="3765177"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1053,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:V50"/>
+  <dimension ref="B2:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1064,222 +1346,546 @@
     <col min="2" max="2" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K8" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="K8" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K9" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="K9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M9" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L10" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L11" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="L12" t="s">
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="K14" t="s">
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="K14" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="K16" t="s">
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="K16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M16" t="s">
+      <c r="L16" s="9"/>
+      <c r="M16" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="11:22" x14ac:dyDescent="0.4">
-      <c r="L17" t="s">
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="11:26" x14ac:dyDescent="0.4">
+      <c r="K17" s="8"/>
+      <c r="L17" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="11:22" x14ac:dyDescent="0.4">
-      <c r="L18" t="s">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="11:26" x14ac:dyDescent="0.4">
+      <c r="K18" s="8"/>
+      <c r="L18" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="11:22" x14ac:dyDescent="0.4">
-      <c r="L19" t="s">
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="11:26" x14ac:dyDescent="0.4">
+      <c r="K19" s="8"/>
+      <c r="L19" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="11:22" x14ac:dyDescent="0.4">
-      <c r="L20" t="s">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="11:26" x14ac:dyDescent="0.4">
+      <c r="K20" s="8"/>
+      <c r="L20" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="11:22" x14ac:dyDescent="0.4">
-      <c r="K22" t="s">
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="11:26" x14ac:dyDescent="0.4">
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="11:26" x14ac:dyDescent="0.4">
+      <c r="K22" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="11:22" x14ac:dyDescent="0.4">
-      <c r="K27" t="s">
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="11:26" x14ac:dyDescent="0.4">
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="11:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K24" s="11"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="26" spans="11:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="11:26" x14ac:dyDescent="0.4">
+      <c r="K27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T27" t="s">
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="7"/>
+      <c r="T27" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="11:22" x14ac:dyDescent="0.4">
-      <c r="K28" t="s">
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="7"/>
+    </row>
+    <row r="28" spans="11:26" x14ac:dyDescent="0.4">
+      <c r="K28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M28" t="s">
+      <c r="L28" s="9"/>
+      <c r="M28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T28" t="s">
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="10"/>
+      <c r="T28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="V28" t="s">
+      <c r="U28" s="9"/>
+      <c r="V28" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="11:22" x14ac:dyDescent="0.4">
-      <c r="L29" t="s">
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="10"/>
+    </row>
+    <row r="29" spans="11:26" x14ac:dyDescent="0.4">
+      <c r="K29" s="8"/>
+      <c r="L29" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="U29" t="s">
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="10"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="11:22" x14ac:dyDescent="0.4">
-      <c r="K30" t="s">
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="10"/>
+    </row>
+    <row r="30" spans="11:26" x14ac:dyDescent="0.4">
+      <c r="K30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="T30" t="s">
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="10"/>
+      <c r="T30" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="11:22" x14ac:dyDescent="0.4">
-      <c r="U31" t="s">
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="10"/>
+    </row>
+    <row r="31" spans="11:26" x14ac:dyDescent="0.4">
+      <c r="K31" s="8"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="10"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="K33" t="s">
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="10"/>
+    </row>
+    <row r="32" spans="11:26" x14ac:dyDescent="0.4">
+      <c r="K32" s="8"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="10"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="10"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="K33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M33" t="s">
+      <c r="L33" s="9"/>
+      <c r="M33" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T33" t="s">
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="10"/>
+      <c r="T33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="V33" t="s">
+      <c r="U33" s="9"/>
+      <c r="V33" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="L34" t="s">
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="10"/>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="K34" s="8"/>
+      <c r="L34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="U34" t="s">
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="10"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="L35" t="s">
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="10"/>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="K35" s="8"/>
+      <c r="L35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="U35" t="s">
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="10"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="K36" t="s">
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="10"/>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="K36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U36" t="s">
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="10"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="T37" t="s">
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="10"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="K37" s="8"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="10"/>
+      <c r="T37" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="10"/>
+    </row>
+    <row r="38" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K38" s="11"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="13"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="13"/>
+    </row>
+    <row r="40" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B42" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B43" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B44" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B45" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B46" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B47" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B48" s="4" t="s">
         <v>14</v>
       </c>
@@ -1297,5 +1903,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/project.xlsx
+++ b/document/project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9150" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="全体図" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>リズムチャンバラ</t>
     <phoneticPr fontId="1"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Class : NoteController</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>public:</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -348,6 +344,29 @@
     </rPh>
     <rPh sb="60" eb="62">
       <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Class : NoteController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．クラスごとにファイルと作る、かつ[.h]では定義とコメントだけを記述し、処理そのものは[.cpp]に書くこと</t>
+    <rPh sb="13" eb="14">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1207,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B19:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1309,22 +1328,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C5"/>
+  <dimension ref="B4:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1337,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T24" sqref="T8:Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1371,7 +1395,7 @@
     <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1390,7 +1414,7 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1398,11 +1422,11 @@
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
       <c r="K9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -1412,7 +1436,7 @@
     <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="8"/>
       <c r="C10" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1420,7 +1444,7 @@
       <c r="G10" s="10"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -1431,7 +1455,7 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1439,7 +1463,7 @@
       <c r="G11" s="10"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -1456,7 +1480,7 @@
       <c r="G12" s="10"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -1487,7 +1511,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="13"/>
       <c r="K14" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
@@ -1507,11 +1531,11 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="K16" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -1521,7 +1545,7 @@
     <row r="17" spans="11:26" x14ac:dyDescent="0.4">
       <c r="K17" s="8"/>
       <c r="L17" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -1532,7 +1556,7 @@
     <row r="18" spans="11:26" x14ac:dyDescent="0.4">
       <c r="K18" s="8"/>
       <c r="L18" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -1543,7 +1567,7 @@
     <row r="19" spans="11:26" x14ac:dyDescent="0.4">
       <c r="K19" s="8"/>
       <c r="L19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -1554,7 +1578,7 @@
     <row r="20" spans="11:26" x14ac:dyDescent="0.4">
       <c r="K20" s="8"/>
       <c r="L20" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -1573,7 +1597,7 @@
     </row>
     <row r="22" spans="11:26" x14ac:dyDescent="0.4">
       <c r="K22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -1603,7 +1627,7 @@
     <row r="26" spans="11:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="11:26" x14ac:dyDescent="0.4">
       <c r="K27" s="5" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -1624,11 +1648,11 @@
     </row>
     <row r="28" spans="11:26" x14ac:dyDescent="0.4">
       <c r="K28" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
@@ -1636,11 +1660,11 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="10"/>
       <c r="T28" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U28" s="9"/>
       <c r="V28" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
@@ -1650,7 +1674,7 @@
     <row r="29" spans="11:26" x14ac:dyDescent="0.4">
       <c r="K29" s="8"/>
       <c r="L29" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -1660,7 +1684,7 @@
       <c r="R29" s="10"/>
       <c r="T29" s="8"/>
       <c r="U29" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
@@ -1670,7 +1694,7 @@
     </row>
     <row r="30" spans="11:26" x14ac:dyDescent="0.4">
       <c r="K30" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
@@ -1680,7 +1704,7 @@
       <c r="Q30" s="9"/>
       <c r="R30" s="10"/>
       <c r="T30" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
@@ -1700,7 +1724,7 @@
       <c r="R31" s="10"/>
       <c r="T31" s="8"/>
       <c r="U31" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
@@ -1727,11 +1751,11 @@
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.4">
       <c r="K33" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -1739,11 +1763,11 @@
       <c r="Q33" s="9"/>
       <c r="R33" s="10"/>
       <c r="T33" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U33" s="9"/>
       <c r="V33" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
@@ -1753,7 +1777,7 @@
     <row r="34" spans="2:26" x14ac:dyDescent="0.4">
       <c r="K34" s="8"/>
       <c r="L34" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -1763,7 +1787,7 @@
       <c r="R34" s="10"/>
       <c r="T34" s="8"/>
       <c r="U34" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
@@ -1774,7 +1798,7 @@
     <row r="35" spans="2:26" x14ac:dyDescent="0.4">
       <c r="K35" s="8"/>
       <c r="L35" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -1784,7 +1808,7 @@
       <c r="R35" s="10"/>
       <c r="T35" s="8"/>
       <c r="U35" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
@@ -1794,7 +1818,7 @@
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.4">
       <c r="K36" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
@@ -1805,7 +1829,7 @@
       <c r="R36" s="10"/>
       <c r="T36" s="8"/>
       <c r="U36" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
@@ -1823,7 +1847,7 @@
       <c r="Q37" s="9"/>
       <c r="R37" s="10"/>
       <c r="T37" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>

--- a/document/project.xlsx
+++ b/document/project.xlsx
@@ -4,12 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9150" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9156" tabRatio="775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="全体図" sheetId="1" r:id="rId1"/>
     <sheet name="注意事項" sheetId="3" r:id="rId2"/>
-    <sheet name="ゲームシーン" sheetId="2" r:id="rId3"/>
+    <sheet name="ゲーム" sheetId="6" r:id="rId3"/>
+    <sheet name="ゲーム構成図" sheetId="7" r:id="rId4"/>
+    <sheet name="hitcheck" sheetId="8" r:id="rId5"/>
+    <sheet name="gamecontroller" sheetId="9" r:id="rId6"/>
+    <sheet name="Note" sheetId="10" r:id="rId7"/>
+    <sheet name="NoteController" sheetId="11" r:id="rId8"/>
+    <sheet name="NoteView" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
   <si>
     <t>リズムチャンバラ</t>
     <phoneticPr fontId="1"/>
@@ -103,19 +109,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bool HitCheckButton()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bool HitCheckStick()</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>File : HitCheck</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Class : Note</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -348,6 +346,171 @@
     </rPh>
     <rPh sb="60" eb="62">
       <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※アンダーバー付きのものをクリックすると該当ページに飛ぶ</t>
+    <rPh sb="7" eb="8">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DirectX3D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成図</t>
+    <rPh sb="0" eb="3">
+      <t>コウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成要素</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呼び出す</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生成する</t>
+    <rPh sb="0" eb="2">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呼ぶ側</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呼ばれる側</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作る側</t>
+    <rPh sb="0" eb="1">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作られる側</t>
+    <rPh sb="0" eb="1">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HASA関係</t>
+    <rPh sb="4" eb="6">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所有者</t>
+    <rPh sb="0" eb="2">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被所有者</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>ショユウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意事項（リンク）</t>
+    <rPh sb="0" eb="2">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool HitCheckButton()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Class : Note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（描画）</t>
+    <rPh sb="1" eb="3">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（制御）</t>
+    <rPh sb="1" eb="3">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム制御</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -356,7 +519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +532,22 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -521,10 +700,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -539,8 +719,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,13 +748,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -609,13 +795,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -656,13 +842,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -703,13 +889,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -754,25 +940,510 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>13483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>668214</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="3213883"/>
+          <a:ext cx="2009334" cy="443718"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>NoteController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5274</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>213361</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3360420" y="2743201"/>
+          <a:ext cx="2009334" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>Note</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5274</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>213361</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678180" y="3886201"/>
+          <a:ext cx="2009334" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>NoteView</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12894</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>220981</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026920" y="1607821"/>
+          <a:ext cx="2009334" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>hitcheck</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5274</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372100" y="1607821"/>
+          <a:ext cx="2009334" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>gamecontroller</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12894</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="1"/>
+          <a:endCxn id="14" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4036254" y="1828801"/>
+          <a:ext cx="1335846" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>341727</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>341727</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4365087" y="2065021"/>
+          <a:ext cx="2011680" cy="678180"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>668214</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>213361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>341727</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6742</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2679894" y="3185161"/>
+          <a:ext cx="1685193" cy="250581"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5274</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>213361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>341727</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>220981</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="13" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2687514" y="3185161"/>
+          <a:ext cx="1677573" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1030941" y="1232647"/>
-          <a:ext cx="481853" cy="997324"/>
+        <a:xfrm flipV="1">
+          <a:off x="1173480" y="571500"/>
+          <a:ext cx="807720" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -801,25 +1472,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4045324" y="2308412"/>
-          <a:ext cx="3529852" cy="5894294"/>
+          <a:off x="3825240" y="571500"/>
+          <a:ext cx="883920" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -830,13 +1501,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -847,26 +1518,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>369794</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>490026</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>425824</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7933765" y="3955676"/>
-          <a:ext cx="2106706" cy="3899648"/>
+        <a:xfrm>
+          <a:off x="6525066" y="571500"/>
+          <a:ext cx="820614" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -877,60 +1548,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9973235" y="4179794"/>
-          <a:ext cx="3765177" cy="3765177"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1205,102 +1829,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B19:G37"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="3" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C25" s="1" t="s">
+    <row r="10" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="2" t="s">
+    <row r="12" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F28" s="1" t="s">
+    <row r="13" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F29" s="4" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F15" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F30" s="4" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="F16" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F31" s="4" t="s">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F17" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F32" s="4" t="s">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F33" s="4" t="s">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F34" s="4" t="s">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F35" s="4" t="s">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F36" s="4" t="s">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F22" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="6:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F37" s="2" t="s">
+    <row r="23" spans="6:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E11" location="ゲーム!A1" display="ゲーム"/>
+    <hyperlink ref="B4" location="注意事項!A1" display="注意事項"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1311,20 +1949,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1335,574 +1971,825 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z50"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C7" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C12" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C13" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C14" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C15" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C16" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C4" location="ゲーム構成図!A1" display="リンク"/>
+    <hyperlink ref="C7" location="hitcheck!A1" display="当たり判定"/>
+    <hyperlink ref="C8" location="Note!A1" display="ノーツ"/>
+    <hyperlink ref="D8" location="gamecontroller!A1" display="（制御）"/>
+    <hyperlink ref="E8" location="NoteView!A1" display="（描画）"/>
+    <hyperlink ref="C6" location="gamecontroller!A1" display="ゲーム制御"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:S14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="8.796875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="S5" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="S6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="S7" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="S8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="S9" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="S10" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="S11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="S12" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="S13" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="S14" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
     </row>
-    <row r="7" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B8" s="5" t="s">
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="K8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" s="8" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="K9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B12" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="K14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="K16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="11:26" x14ac:dyDescent="0.4">
-      <c r="K17" s="8"/>
-      <c r="L17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="11:26" x14ac:dyDescent="0.4">
-      <c r="K18" s="8"/>
-      <c r="L18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="11:26" x14ac:dyDescent="0.4">
-      <c r="K19" s="8"/>
-      <c r="L19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="11:26" x14ac:dyDescent="0.4">
-      <c r="K20" s="8"/>
-      <c r="L20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="11:26" x14ac:dyDescent="0.4">
-      <c r="K21" s="8"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="11:26" x14ac:dyDescent="0.4">
-      <c r="K22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="11:26" x14ac:dyDescent="0.4">
-      <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="10"/>
-    </row>
-    <row r="24" spans="11:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K24" s="11"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="26" spans="11:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="11:26" x14ac:dyDescent="0.4">
-      <c r="K27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="7"/>
-      <c r="T27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="7"/>
-    </row>
-    <row r="28" spans="11:26" x14ac:dyDescent="0.4">
-      <c r="K28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="10"/>
-      <c r="T28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="10"/>
-    </row>
-    <row r="29" spans="11:26" x14ac:dyDescent="0.4">
-      <c r="K29" s="8"/>
-      <c r="L29" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="10"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="10"/>
-    </row>
-    <row r="30" spans="11:26" x14ac:dyDescent="0.4">
-      <c r="K30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="10"/>
-      <c r="T30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="10"/>
-    </row>
-    <row r="31" spans="11:26" x14ac:dyDescent="0.4">
-      <c r="K31" s="8"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="10"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="10"/>
-    </row>
-    <row r="32" spans="11:26" x14ac:dyDescent="0.4">
-      <c r="K32" s="8"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="10"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="10"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="K33" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="10"/>
-      <c r="T33" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="10"/>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="K34" s="8"/>
-      <c r="L34" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="10"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="10"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="K35" s="8"/>
-      <c r="L35" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="10"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="10"/>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="K36" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="10"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="10"/>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="K37" s="8"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="10"/>
-      <c r="T37" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="10"/>
-    </row>
-    <row r="38" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K38" s="11"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="13"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="13"/>
-    </row>
-    <row r="40" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B41" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B42" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B43" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B44" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B45" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B46" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B47" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B48" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B49" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/project.xlsx
+++ b/document/project.xlsx
@@ -936,6 +936,49 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33495</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>87924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>372021</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3650064" y="545124"/>
+          <a:ext cx="5684249" cy="3037952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1974,7 +2017,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2075,6 +2118,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/document/project.xlsx
+++ b/document/project.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9156" tabRatio="775" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9156" tabRatio="775" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="全体図" sheetId="1" r:id="rId1"/>
     <sheet name="注意事項" sheetId="3" r:id="rId2"/>
     <sheet name="ゲーム" sheetId="6" r:id="rId3"/>
     <sheet name="ゲーム構成図" sheetId="7" r:id="rId4"/>
-    <sheet name="hitcheck" sheetId="8" r:id="rId5"/>
-    <sheet name="gamecontroller" sheetId="9" r:id="rId6"/>
-    <sheet name="Note" sheetId="10" r:id="rId7"/>
-    <sheet name="NoteController" sheetId="11" r:id="rId8"/>
-    <sheet name="NoteView" sheetId="12" r:id="rId9"/>
+    <sheet name="game" sheetId="14" r:id="rId5"/>
+    <sheet name="hitcheck" sheetId="8" r:id="rId6"/>
+    <sheet name="gamecontroller" sheetId="9" r:id="rId7"/>
+    <sheet name="Note" sheetId="10" r:id="rId8"/>
+    <sheet name="NoteController" sheetId="11" r:id="rId9"/>
+    <sheet name="NoteView" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="80">
   <si>
     <t>リズムチャンバラ</t>
     <phoneticPr fontId="1"/>
@@ -113,10 +114,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>File : HitCheck</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Class : NoteView</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -247,10 +244,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>File : GameController</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>// 描画に必要な変数を用意（モデルのポインター変数など）</t>
     <rPh sb="3" eb="5">
       <t>ビョウガ</t>
@@ -274,9 +267,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>//入力に応じてHitCheckの関数を呼び出す</t>
-  </si>
-  <si>
     <t>//戻り値を参考にしてAddScore()などを呼び出す</t>
     <rPh sb="2" eb="3">
       <t>モド</t>
@@ -511,6 +501,133 @@
     <t>ゲーム制御</t>
     <rPh sb="3" eb="5">
       <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gameファイルから呼び出され、ゲームシーンの制御を行う</t>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>File : gamecontroller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>File : hitcheck</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンスの当たり判定などを入力に応じて管理する</t>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンスの生成、解放なども行う</t>
+    <rPh sb="7" eb="9">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>File : game</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UpdateGame();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>//入力に応じてHitCheckの関数を呼び出す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InitGame();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UninitGame();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DrawGame();</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// ゲームループを行う、各種の初期化、解放、アップデート、描画を呼び出す</t>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// イベント管理などは別ファイルで管理し、決まったループだけを繰り返す</t>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -982,15 +1099,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>13483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>668214</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>645354</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1002,7 +1119,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670560" y="3213883"/>
+          <a:off x="647700" y="4128283"/>
           <a:ext cx="2009334" cy="443718"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1039,15 +1156,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>5274</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>668214</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>213361</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1059,7 +1176,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3360420" y="2743201"/>
+          <a:off x="2682240" y="3429001"/>
           <a:ext cx="2009334" cy="441960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1096,15 +1213,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5274</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>652974</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>213361</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1116,7 +1233,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="678180" y="3886201"/>
+          <a:off x="655320" y="4800601"/>
           <a:ext cx="2009334" cy="441960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1153,16 +1270,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>213361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12894</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5274</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>220981</xdr:rowOff>
+      <xdr:rowOff>198121</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1173,7 +1290,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2026920" y="1607821"/>
+          <a:off x="678180" y="1584961"/>
           <a:ext cx="2009334" cy="441960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1210,16 +1327,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>5274</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1230,7 +1347,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5372100" y="1607821"/>
+          <a:off x="678180" y="2476501"/>
           <a:ext cx="2009334" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1267,29 +1384,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12894</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>341727</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>198121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>341727</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="1"/>
-          <a:endCxn id="14" idx="3"/>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="14" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4036254" y="1828801"/>
-          <a:ext cx="1335846" cy="7620"/>
+        <a:xfrm flipV="1">
+          <a:off x="1682847" y="2026921"/>
+          <a:ext cx="0" cy="449580"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1317,65 +1434,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>341727</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>341727</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="2"/>
-          <a:endCxn id="12" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4365087" y="2065021"/>
-          <a:ext cx="2011680" cy="678180"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>668214</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>645354</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>213361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>341727</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>334107</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>6742</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1388,8 +1455,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2679894" y="3185161"/>
-          <a:ext cx="1685193" cy="250581"/>
+          <a:off x="2657034" y="3870961"/>
+          <a:ext cx="1029873" cy="479181"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1417,15 +1484,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5274</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>652974</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>213361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>341727</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>334107</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>220981</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1438,8 +1505,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2687514" y="3185161"/>
-          <a:ext cx="1677573" cy="922020"/>
+          <a:off x="2664654" y="3870961"/>
+          <a:ext cx="1022253" cy="1150620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1598,6 +1665,213 @@
         </a:fillRef>
         <a:effectRef idx="2">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>341727</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>220981</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1682847" y="2933701"/>
+          <a:ext cx="999393" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5274</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4030980" y="1158240"/>
+          <a:ext cx="2009334" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" baseline="0"/>
+            <a:t>game</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>334107</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>341727</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3686907" y="1615440"/>
+          <a:ext cx="1348740" cy="1813561"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5274</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>341727</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2687514" y="1615440"/>
+          <a:ext cx="2348133" cy="1089661"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1888,12 +2162,12 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -1985,6 +2259,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1998,12 +2421,12 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2016,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2027,27 +2450,27 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
@@ -2060,10 +2483,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
@@ -2126,8 +2549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2137,33 +2560,33 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C2" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.45">
@@ -2219,39 +2642,56 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="8.796875" style="9"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="9" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2261,76 +2701,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2339,6 +2738,102 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H19"/>
   <sheetViews>
@@ -2349,7 +2844,7 @@
     <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2360,11 +2855,11 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -2374,7 +2869,7 @@
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -2385,7 +2880,7 @@
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -2396,7 +2891,7 @@
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -2415,7 +2910,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2435,11 +2930,11 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -2449,7 +2944,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B12" s="8"/>
       <c r="C12" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -2460,7 +2955,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13" s="8"/>
       <c r="C13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -2471,7 +2966,7 @@
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B14" s="8"/>
       <c r="C14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -2482,7 +2977,7 @@
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -2501,7 +2996,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2534,7 +3029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I14"/>
   <sheetViews>
@@ -2547,7 +3042,7 @@
     <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2559,11 +3054,11 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -2574,7 +3069,7 @@
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -2585,7 +3080,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -2617,11 +3112,11 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -2632,7 +3127,7 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="8"/>
       <c r="C10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -2644,7 +3139,7 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -2655,7 +3150,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2689,151 +3184,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/document/project.xlsx
+++ b/document/project.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>リズムチャンバラ</t>
     <phoneticPr fontId="1"/>
@@ -629,6 +629,10 @@
     <rPh sb="34" eb="35">
       <t>カエ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BG</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -821,7 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -841,6 +845,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2437,7 +2442,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -2527,6 +2532,11 @@
     <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C16" s="9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C17" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2549,9 +2559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>

--- a/document/project.xlsx
+++ b/document/project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9156" tabRatio="775" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9156" tabRatio="775"/>
   </bookViews>
   <sheets>
     <sheet name="全体図" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
   <si>
     <t>リズムチャンバラ</t>
     <phoneticPr fontId="1"/>
@@ -680,7 +680,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -727,17 +727,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -825,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -834,12 +823,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -982,53 +970,6 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="1628775" y="4791075"/>
           <a:ext cx="3762376" cy="933450"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4343402" y="5981700"/>
-          <a:ext cx="514348" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2153,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2171,7 +2112,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2186,7 +2127,7 @@
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -2204,56 +2145,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="F15" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="F16" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F17" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F18" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F19" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F20" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F21" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F22" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="F23" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F23" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2271,144 +2191,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2445,7 +2363,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2466,7 +2384,7 @@
       <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2474,68 +2392,68 @@
       <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2559,91 +2477,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="9"/>
+    <col min="1" max="16384" width="8.796875" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="S8" s="9" t="s">
+      <c r="S8" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="S9" s="9" t="s">
+      <c r="S9" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="S10" s="9" t="s">
+      <c r="S10" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="S11" s="9" t="s">
+      <c r="S11" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="S12" s="9" t="s">
+      <c r="S12" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="S13" s="9" t="s">
+      <c r="S13" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2663,41 +2583,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="9"/>
+    <col min="1" max="16384" width="8.796875" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2719,25 +2639,25 @@
   <sheetData>
     <row r="2" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2749,9 +2669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -2772,68 +2690,68 @@
     </row>
     <row r="9" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2851,185 +2769,185 @@
   <sheetData>
     <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3049,144 +2967,144 @@
   <sheetData>
     <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/document/project.xlsx
+++ b/document/project.xlsx
@@ -2095,7 +2095,7 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2363,7 +2363,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2478,7 +2478,7 @@
   <dimension ref="B2:S14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
